--- a/biology/Zoologie/Abeille_coucou/Abeille_coucou.xlsx
+++ b/biology/Zoologie/Abeille_coucou/Abeille_coucou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les abeilles coucous (parfois écrit abeilles-coucous) sont des insectes solitaires, dont les mœurs évoquent celles des coucous, oiseaux parasitant les couvées d’autres espèces. Ainsi on les qualifie également d’abeilles cleptoparasites.
 </t>
@@ -511,9 +523,11 @@
           <t>Caractéristiques communes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les abeilles coucous appartiennent à différentes familles, mais ont des mœurs assez similaires. Les femelles fécondées vont pondre dans les nids aménagés et garnis par des femelles d’autres espèces. Ainsi la larve du parasite se développe aux dépens de la progéniture de la travailleuse. Ce type de parasitisme aurait émergé à plusieurs reprises et daterait de 85 millions d'années[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les abeilles coucous appartiennent à différentes familles, mais ont des mœurs assez similaires. Les femelles fécondées vont pondre dans les nids aménagés et garnis par des femelles d’autres espèces. Ainsi la larve du parasite se développe aux dépens de la progéniture de la travailleuse. Ce type de parasitisme aurait émergé à plusieurs reprises et daterait de 85 millions d'années.
 	Quelques abeilles coucous
 			Melecta luctuosa
 			Stelis breviuscula
@@ -545,10 +559,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les abeilles coucous appartiennent toutes à la super-famille des Apoidea.
-Les plus connues sont les Coelioxys[2], mais d'autres groupes ont le même mode de reproduction : dans la famille des Apidés, les abeilles solitaires de la sous-famille des Nomadinae, et notamment celles du genre Nomada parasitent les abeilles des familles Andrenidae et Halictidae ou celles du genre Osmia. Toujours dans les Apidés, les abeilles coucous des genres Melecta ou Thyreus font partie de la sous-famille des Apinae et parasitent d'autres abeilles solitaires classées parmi les Anthophorini. Les abeilles coucous du genre Sphecodes qui font partie des Halictidae parasitent des membres de leur propre famille. Dans la famille des Megachilidae ce sont les membres des genres Dioxys, Perizia, Stelis et bien sûr les Coelioxys qui parasitent d'autres abeilles solitaires, des Anthophora classés dans les Apidés, mais aussi d'autres Mégachilidés du genre Megachile[3].
+Les plus connues sont les Coelioxys, mais d'autres groupes ont le même mode de reproduction : dans la famille des Apidés, les abeilles solitaires de la sous-famille des Nomadinae, et notamment celles du genre Nomada parasitent les abeilles des familles Andrenidae et Halictidae ou celles du genre Osmia. Toujours dans les Apidés, les abeilles coucous des genres Melecta ou Thyreus font partie de la sous-famille des Apinae et parasitent d'autres abeilles solitaires classées parmi les Anthophorini. Les abeilles coucous du genre Sphecodes qui font partie des Halictidae parasitent des membres de leur propre famille. Dans la famille des Megachilidae ce sont les membres des genres Dioxys, Perizia, Stelis et bien sûr les Coelioxys qui parasitent d'autres abeilles solitaires, des Anthophora classés dans les Apidés, mais aussi d'autres Mégachilidés du genre Megachile.
 </t>
         </is>
       </c>
